--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_147.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_147.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>jaah_69</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_80</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04735872235872236</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Bb:7', 'Eb', 'Eb:7'], ['Eb', 'Eb', 'Eb:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.72, 14.06)]</t>
+          <t>[['C:7', 'F', 'F'], ['C:7', 'F', 'F:7'], ['F', 'F', 'F:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.094553, 24.840113)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:50', '0:00:56.610000'), ('0:00:42.010000', '0:00:46.320000'), ('0:00:19.080000', '0:00:27.810000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:21.410000', '0:00:24.830000'), ('0:00:11.280000', '0:00:15.360000'), ('0:00:22.100000', '0:00:26.200000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1953781512605042</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.279, 16.531)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2965116279069767</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_9</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1821428571428571</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>[['E:7', 'A', 'A'], ['B:7', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(15.014, 24.195)]</t>
+          <t>[['C:7', 'F', 'F'], ['G:7', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(60.04, 70.96)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:24.631133', '0:00:29.751133'), ('0:00:22.622607', '0:00:28.741065')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:51.690000', '0:00:55.720000'), ('0:00:50.360000', '0:00:54.400000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1016666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E'], ['C#:min', 'F#:min', 'B']]</t>
-        </is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1663636363636364</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E'], ['C#:min', 'F#:min', 'B']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(51.090272, 53.876666), (50.382063, 52.460249)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.93948, 19.795536), (38.139299, 41.982202)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:24.290000', '0:00:28.790000'), ('0:00:14.300000', '0:00:17.650000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:05.880000', '0:00:11.460000'), ('0:00:06.620000', '0:00:12.780000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Db/5', 'Ab', 'Db/5']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(264.615, 273.028)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.82, 17.361)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2225274725274725</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.271920088790233</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'B']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(57.673129, 63.489727)]</t>
+          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(26.162131, 40.546893)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:31.898979', '0:00:36.914489')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2135416666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08760545100584036</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>[['G:min/A#', 'C:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.36, 11.38)]</t>
+          <t>[['B:min', 'E', 'E/2']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:06.820000', '0:00:08.760000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:59.162887', '0:01:05.559465')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.648911, 28.810725)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.08, 11.7)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5535714285714286</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F/A', 'C:7/G', 'F/A']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.09, 9.538163)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(269.32, 271.32)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:04.605000', '0:00:21.095000'), ('0:00:03.509000', '0:00:18.764000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:10.540000', '0:00:14.760000'), ('0:00:09.940000', '0:00:14.100000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5882352941176471</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(46.06, 53.66)]</t>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'A:min', 'D:min'], ['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'G:min/5'], ['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(30.842, 35.352), (35.888, 38.359)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(26.035941, 29.460884), (27.789047, 31.109501)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1369047619047619</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.014823, 12.241493)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06585677749360613</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(33.930725, 38.818526)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(18.686825, 21.25263)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1155405405405405</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'F#:min/5']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'G:min/5']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(23.446916, 28.474036)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(24.840544, 28.544126)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_61</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2664473684210527</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(89.08, 98.1)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(3.744784, 6.774988)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
